--- a/bug .xlsx
+++ b/bug .xlsx
@@ -119,108 +119,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>开奖结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小单双是红黑字体，不是蓝色字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框的大小调整，长宽都要调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆时时彩</t>
+  </si>
+  <si>
+    <t>位置错误，跑到下方去了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了冠军，其他全部存在下注号码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运农场</t>
+  </si>
+  <si>
+    <t>除了正码和连码，其他的页面开奖结果没有显示出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正码和连码的开奖号码位置不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了两面盘，其他的开奖期数都不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东快乐十分</t>
+  </si>
+  <si>
+    <t>除了两面盘，开奖结果不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注不需要确认，只需要连续点两个回车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷下注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面的投注框不能用，填写会显示错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟正网一一比对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤更换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>第七名第八名这些要用汉字，不要用数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开奖结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小单双是红黑字体，不是蓝色字体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>框的大小调整，长宽都要调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆时时彩</t>
-  </si>
-  <si>
-    <t>位置错误，跑到下方去了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除了冠军，其他全部存在下注号码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运农场</t>
-  </si>
-  <si>
-    <t>除了正码和连码，其他的页面开奖结果没有显示出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正码和连码的开奖号码位置不对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除了两面盘，其他的开奖期数都不对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东快乐十分</t>
-  </si>
-  <si>
-    <t>除了两面盘，开奖结果不显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下注不需要确认，只需要连续点两个回车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快捷下注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下面的投注框不能用，填写会显示错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟正网一一比对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮肤更换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部刷新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,6 +342,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -752,7 +755,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -840,7 +843,7 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -858,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -895,7 +898,7 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -911,11 +914,11 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -931,7 +934,7 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -965,8 +968,8 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
+      <c r="E12" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -982,8 +985,8 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>25</v>
+      <c r="E13" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -994,16 +997,16 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1011,19 +1014,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1031,16 +1034,16 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1048,16 +1051,16 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1065,16 +1068,16 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1082,16 +1085,16 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1099,16 +1102,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1116,16 +1119,16 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1133,16 +1136,16 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1150,13 +1153,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5">

--- a/bug .xlsx
+++ b/bug .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="106">
   <si>
     <t>重庆时时彩</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,15 +220,243 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>今日输赢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有显示，冠亚有显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔率错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库没有上库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任选四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注后的确认框没有显示赔率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连码下注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1球~第8球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注后左边显示错误提示信息array(2) { [0]=&gt; string(2) "h9" [1]=&gt; string(3) "h10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封盘后不要在下注的地方显示一个“-”，参照正网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换皮肤之后的确定和重置按钮颜色不对，还是棕色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换皮肤之后两面长龙列表填充颜色不对，仍为棕色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连码开奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开奖号码分成了两行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正网除了两面盘，上面的下注框是没有的，只有下面的下注框，两面盘有上下两个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连码开奖期数是错的，可能变成赛车的期数了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注后的确认框：正码赔率显示为了下注金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定无法下注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连码开奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两面长龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开奖期数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有江苏，两个的开奖期数后面多了个0，比如068，应为68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>第七名第八名这些要用汉字，不要用数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1~8球下面的类型西瓜椰子这些大于等于4，标记为红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择两个码也可以下注，而且下注后回显错误，比如任选四显示为选三前直，任选三变成选二连直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注后的确认框：第1~8球下注显示赔率为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注，比如下第二球6、7，确定，不要点击其他页面，直接点击第三球6、7，本来应该只下第三球的6、7，但是把前面那个也下了，也就是下注后没有清除选中的球号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新旧版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧版没有快捷和一般的，只有一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户历史第二层，下注多个游戏，比如广东和赛车，显示的应该是分行的，现在是并成一行，参照正网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开奖结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总和那里需要计算出来总和的数字，而不是只有大小单双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球号分配表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球号分配表与正网差别比较大，少了开奖号码，少了蔬菜的图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注状况没有完成？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏骰宝</t>
+  </si>
+  <si>
+    <t>默认是一般，改为快捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>红球需要在球号分配表里面标为红色，比如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20,01,08,04,15,03,11,07</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注回显</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注回显没有显示注单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表内容错误，老是只有第4球？？冠亚组合那个两面长龙是对的，理应是同一个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,8 +497,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +542,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -293,7 +557,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,8 +597,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,24 +611,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="3" borderId="0" xfId="13" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
+    <cellStyle name="差" xfId="13" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,13 +663,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -421,13 +710,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -751,71 +1040,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -824,49 +1096,49 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -875,197 +1147,200 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>51</v>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>47</v>
+      <c r="E14" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>35</v>
+      <c r="E17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -1076,13 +1351,13 @@
       <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>34</v>
+      <c r="E18" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -1093,16 +1368,16 @@
       <c r="D19" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>36</v>
+      <c r="E19" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -1110,116 +1385,531 @@
       <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>38</v>
+      <c r="E20" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>25</v>
+    <row r="25" spans="1:5" s="8" customFormat="1">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="E25" s="9">
+        <v>41635</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
         <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.8">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1233,8 +1923,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1244,12 +1934,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1262,12 +1952,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bug .xlsx
+++ b/bug .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -455,8 +454,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,7 +556,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,26 +599,152 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -632,25 +757,72 @@
     <xf numFmtId="31" fontId="8" fillId="3" borderId="0" xfId="13" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="58">
     <cellStyle name="差" xfId="13" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1040,18 +1212,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -1081,7 +1253,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1115,7 +1287,7 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1132,7 +1304,7 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1149,7 +1321,7 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1203,7 +1375,7 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
@@ -1223,7 +1395,7 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F11" t="s">
@@ -1260,7 +1432,7 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1277,7 +1449,7 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1351,7 +1523,7 @@
       <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1368,7 +1540,7 @@
       <c r="D19" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1385,7 +1557,7 @@
       <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1402,7 +1574,7 @@
       <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1419,7 +1591,7 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1453,15 +1625,15 @@
       <c r="D24" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="8" customFormat="1">
-      <c r="A25" s="8">
+    <row r="25" spans="1:5" s="6" customFormat="1">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <v>41635</v>
       </c>
     </row>
@@ -1478,7 +1650,7 @@
       <c r="D26" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1546,7 +1718,7 @@
       <c r="D30" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1563,7 +1735,7 @@
       <c r="D31" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1580,7 +1752,7 @@
       <c r="D32" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1597,7 +1769,7 @@
       <c r="D33" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1614,7 +1786,7 @@
       <c r="D34" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1631,7 +1803,7 @@
       <c r="D35" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1648,7 +1820,7 @@
       <c r="D36" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1733,7 +1905,7 @@
       <c r="D41" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1754,7 +1926,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.8">
+    <row r="43" spans="1:5" ht="28">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1767,7 +1939,7 @@
       <c r="D43" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1801,7 +1973,7 @@
       <c r="D45" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1818,7 +1990,7 @@
       <c r="D46" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1852,7 +2024,7 @@
       <c r="D48" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1886,7 +2058,7 @@
       <c r="D50" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1903,7 +2075,7 @@
       <c r="D51" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1923,8 +2095,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1934,12 +2106,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1952,12 +2124,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bug .xlsx
+++ b/bug .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="138">
   <si>
     <t>重庆时时彩</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,10 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下注后的确认框：正码赔率显示为了下注金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击确定无法下注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,10 +361,6 @@
   </si>
   <si>
     <t>错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下注，比如下第二球6、7，确定，不要点击其他页面，直接点击第三球6、7，本来应该只下第三球的6、7，但是把前面那个也下了，也就是下注后没有清除选中的球号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -450,12 +442,148 @@
     <t>列表内容错误，老是只有第4球？？冠亚组合那个两面长龙是对的，理应是同一个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两面盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最上面的总和表里面不能有龙虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虎的位置不对，参照正网顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总和大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仍然存在问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛车没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围骰、全骰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要三个1的图标，而不是一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注，比如下第二球6、7，确定，不要点击其他页面，直接点击第三球6、7，本来应该只下第三球的6、7，但是把前面那个也下了，也就是下注后没有清除选中的球号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开奖结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开奖结果没显示全，但是数据库里面的内容是全齐的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注后的确认框：正码赔率显示为了下注金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1球~第4球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新注单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有显示，需要手动刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两面长龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠亚和单改为冠亚-单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注回显</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为简体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开奖需要手动点击两面盘，然后再点回来才会开奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认选中任选二，但是没有出来checkbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1~8球下面的类型西瓜椰子这些大于等于4，标记为红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是家禽野兽，应该是大小单双这些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-8球快捷投注时中发白龙虎右边的表格边框会变粗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虎赔率以及下注错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,8 +655,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,8 +682,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -555,8 +696,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,8 +887,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,8 +958,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="13" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="58" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="71">
     <cellStyle name="差" xfId="13" builtinId="27"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -794,6 +995,12 @@
     <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -822,6 +1029,13 @@
     <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="好" xfId="58" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -840,7 +1054,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:colOff>3048</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
@@ -1213,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F52"/>
+  <dimension ref="A2:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1224,6 +1438,7 @@
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="92.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -1450,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1493,7 +1708,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1510,7 +1725,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1527,7 +1742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1544,7 +1759,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1561,7 +1776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1578,7 +1793,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1595,7 +1810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1612,7 +1827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1629,7 +1844,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="6" customFormat="1">
+    <row r="25" spans="1:6" s="6" customFormat="1">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1637,7 +1852,7 @@
         <v>41635</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1653,8 +1868,11 @@
       <c r="E26" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1670,8 +1888,11 @@
       <c r="E27" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1688,7 +1909,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1702,10 +1923,10 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1719,10 +1940,13 @@
         <v>52</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" thickTop="1" thickBot="1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1736,10 +1960,13 @@
         <v>23</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>119</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickTop="1">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1753,10 +1980,13 @@
         <v>52</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1773,7 +2003,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1789,8 +2019,11 @@
       <c r="E34" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1804,10 +2037,13 @@
         <v>52</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>83</v>
+      </c>
+      <c r="F35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1823,8 +2059,11 @@
       <c r="E36" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1840,8 +2079,11 @@
       <c r="E37" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1858,7 +2100,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1875,7 +2117,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1883,7 +2125,7 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
@@ -1891,8 +2133,11 @@
       <c r="E40" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1900,16 +2145,19 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s">
         <v>78</v>
       </c>
-      <c r="D41" t="s">
-        <v>79</v>
-      </c>
       <c r="E41" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>103</v>
+      </c>
+      <c r="F41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1917,16 +2165,16 @@
         <v>33</v>
       </c>
       <c r="C42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" t="s">
         <v>80</v>
       </c>
-      <c r="D42" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="28">
+    </row>
+    <row r="43" spans="1:6" ht="30" thickTop="1" thickBot="1">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1934,16 +2182,19 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" t="s">
         <v>86</v>
       </c>
-      <c r="D43" t="s">
-        <v>87</v>
-      </c>
       <c r="E43" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>115</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickTop="1">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1951,16 +2202,16 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1968,16 +2219,16 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16" thickTop="1" thickBot="1">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1985,16 +2236,19 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>92</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickTop="1">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2002,16 +2256,16 @@
         <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2019,16 +2273,16 @@
         <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2036,33 +2290,36 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" t="s">
         <v>97</v>
       </c>
-      <c r="D49" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="F50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2070,23 +2327,287 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E51" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6" s="6" customFormat="1">
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="E52" s="7">
+        <v>41636</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"重庆时时彩, 北京赛车, 幸运农场, 江苏骰宝, 广东快乐十分, 全部"</formula1>
     </dataValidation>

--- a/bug .xlsx
+++ b/bug .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180"/>
+    <workbookView xWindow="4320" yWindow="220" windowWidth="23260" windowHeight="13180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="197">
   <si>
     <t>重庆时时彩</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,10 +341,6 @@
   </si>
   <si>
     <t>第七名第八名这些要用汉字，不要用数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第1~8球下面的类型西瓜椰子这些大于等于4，标记为红色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -455,6 +451,158 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>总和大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仍然存在问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛车没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围骰、全骰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注，比如下第二球6、7，确定，不要点击其他页面，直接点击第三球6、7，本来应该只下第三球的6、7，但是把前面那个也下了，也就是下注后没有清除选中的球号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开奖结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注后的确认框：正码赔率显示为了下注金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1球~第4球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新注单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两面长龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注回显</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1~8球下面的类型西瓜椰子这些大于等于4，标记为红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连码下注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连码下注后的计算总金额比如11，显示为011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主单号正网为8位，我们为7位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注回显</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注后的回显内容有缩进，而且存在不同，见右图，需要对比正网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一旦下注，无论确定还是取消，都需要重置页面，简单来说，一点击就取消页面的选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一旦点击球号准备下注，下面的投注框前面会显示“已经选中n注”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投注页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两面长龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能没做？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线路选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏规则没做？其他几个好像也不太一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>最上面的总和表里面不能有龙虎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,23 +611,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总和大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仍然存在问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛车没有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>围骰、全骰</t>
+    <t>不是家禽野兽，应该是大小单双这些</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -487,47 +619,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下注，比如下第二球6、7，确定，不要点击其他页面，直接点击第三球6、7，本来应该只下第三球的6、7，但是把前面那个也下了，也就是下注后没有清除选中的球号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开奖结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开奖结果没显示全，但是数据库里面的内容是全齐的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下注后的确认框：正码赔率显示为了下注金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第1球~第4球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新注单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>没有显示，需要手动刷新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>两面长龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冠亚和单改为冠亚-单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下注回显</t>
+    <t>还是有冠亚和小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -535,15 +639,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开奖需要手动点击两面盘，然后再点回来才会开奖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>连码</t>
+    <t>待测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -551,31 +651,168 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1-8球快捷投注时中发白龙虎右边的表格边框会变粗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虎赔率以及下注错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两面盘下注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第几球下注龙虎，确认框中没有显示赔率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1~8球下注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1~4龙虎赔率显示null，第5~8显示undefine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点数下注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认框点数显示null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击赔率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击赔率不能显示left信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注后没有清除选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正码下注确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注后确认框没有关掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷热和遗漏这两个不要底纹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下方冷热遗漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下方第1球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1球改为第一球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新旧版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时候莫名切成了旧版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下方投注框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少了一个投注框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两面盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两面盘第5~8没有龙虎的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1~8球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出球率/无出期数需要底纹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>第1~8球下面的类型西瓜椰子这些大于等于4，标记为红色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不是家禽野兽，应该是大小单双这些</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-8球快捷投注时中发白龙虎右边的表格边框会变粗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙虎赔率以及下注错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待测试</t>
+    <t>在有两个下注框的时候，填写的金额会同步显示，参见正网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先填写金额，然后选择号码，回车直接下注无确认框，错误，这里不能下注，需要输入金额才能触动两个回车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一下回车触发确认框，第二下回车无效，其实是有focus的，但是需要点击空格？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资讯的项目对不上，这里需要对照正网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1~8球的开奖显示位置偏下，上面多了个debug的信息占掉一行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连码的下注如果个数不对，提示信息有误，应该为“你选择的球号数量不够，此玩法最少选择3个球号！”诸如此类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最下方的那些总和大小为繁体，北京赛车那个点击切换没有高亮，广东缺总数尾和大小，这个是3个问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的骰子不能换行，看见debug信息“近期开奖结果这里显示有问题
+”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能没做？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧的账户信息已下金额没有显示，那个地方只显示当期这个游戏下注的，开盘后清除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注确认的球号显示为三位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +949,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,6 +1127,135 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,32 +1293,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="8" fillId="3" borderId="0" xfId="13" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -964,8 +1309,53 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="58" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="59" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="59" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="59" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="59" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="114">
     <cellStyle name="差" xfId="13" builtinId="27"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -995,12 +1385,33 @@
     <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1029,13 +1440,35 @@
     <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="58" builtinId="26"/>
+    <cellStyle name="警告文本" xfId="59" builtinId="11"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1123,6 +1556,53 @@
         <a:xfrm>
           <a:off x="6294120" y="365760"/>
           <a:ext cx="914400" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>195072</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>48768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25908</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>109728</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9589008" y="13124688"/>
+          <a:ext cx="1537716" cy="1341120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1427,17 +1907,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F67"/>
+  <dimension ref="A2:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.83203125" customWidth="1"/>
+    <col min="5" max="5" width="92.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1468,7 +1948,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1485,7 +1965,7 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1502,7 +1982,7 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1519,7 +1999,7 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1536,7 +2016,7 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1553,7 +2033,7 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1570,7 +2050,7 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
@@ -1590,7 +2070,7 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
@@ -1610,7 +2090,7 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F11" t="s">
@@ -1630,7 +2110,7 @@
       <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1647,7 +2127,7 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1664,7 +2144,7 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1681,7 +2161,7 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F15" t="s">
@@ -1701,7 +2181,7 @@
       <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F16" t="s">
@@ -1721,7 +2201,7 @@
       <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1738,7 +2218,7 @@
       <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1755,7 +2235,7 @@
       <c r="D19" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1772,7 +2252,7 @@
       <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1789,7 +2269,7 @@
       <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1806,7 +2286,7 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1823,7 +2303,7 @@
       <c r="D23" t="s">
         <v>5</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1840,15 +2320,15 @@
       <c r="D24" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="6" customFormat="1">
-      <c r="A25" s="6">
+    <row r="25" spans="1:6" s="1" customFormat="1">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="10">
         <v>41635</v>
       </c>
     </row>
@@ -1865,11 +2345,11 @@
       <c r="D26" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1885,11 +2365,11 @@
       <c r="D27" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1905,7 +2385,7 @@
       <c r="D28" t="s">
         <v>52</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1922,8 +2402,8 @@
       <c r="D29" t="s">
         <v>52</v>
       </c>
-      <c r="E29" t="s">
-        <v>131</v>
+      <c r="E29" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1">
@@ -1939,11 +2419,11 @@
       <c r="D30" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>84</v>
+      <c r="E30" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16" thickTop="1" thickBot="1">
@@ -1959,11 +2439,11 @@
       <c r="D31" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>110</v>
+      <c r="E31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickTop="1">
@@ -1979,11 +2459,11 @@
       <c r="D32" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1999,7 +2479,7 @@
       <c r="D33" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2016,11 +2496,11 @@
       <c r="D34" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2036,11 +2516,11 @@
       <c r="D35" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>83</v>
+      <c r="E35" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2056,11 +2536,11 @@
       <c r="D36" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2076,11 +2556,11 @@
       <c r="D37" t="s">
         <v>52</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="5" t="s">
         <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2096,7 +2576,7 @@
       <c r="D38" t="s">
         <v>52</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2113,7 +2593,7 @@
       <c r="D39" t="s">
         <v>52</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2130,11 +2610,11 @@
       <c r="D40" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2150,11 +2630,11 @@
       <c r="D41" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" t="s">
         <v>103</v>
-      </c>
-      <c r="F41" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1">
@@ -2170,7 +2650,7 @@
       <c r="D42" t="s">
         <v>78</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2182,16 +2662,16 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s">
         <v>85</v>
       </c>
-      <c r="D43" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="10" t="s">
+      <c r="E43" s="2" t="s">
         <v>111</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" thickTop="1">
@@ -2202,13 +2682,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="D44" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1">
@@ -2219,13 +2699,13 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16" thickTop="1" thickBot="1">
@@ -2236,16 +2716,16 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D46" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>112</v>
+      <c r="F46" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" thickTop="1">
@@ -2256,13 +2736,13 @@
         <v>33</v>
       </c>
       <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="D47" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2273,13 +2753,13 @@
         <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>100</v>
+        <v>85</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2290,13 +2770,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" t="s">
         <v>95</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="E49" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2304,19 +2784,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>99</v>
+        <v>85</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="F50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2327,23 +2807,23 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D51" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="F51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="6" customFormat="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="1" customFormat="1">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="10">
         <v>41636</v>
       </c>
     </row>
@@ -2355,13 +2835,13 @@
         <v>37</v>
       </c>
       <c r="C53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" t="s">
         <v>105</v>
       </c>
-      <c r="D53" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>107</v>
+      <c r="E53" s="13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2372,13 +2852,13 @@
         <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2389,13 +2869,13 @@
         <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>132</v>
+      <c r="E55" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2403,16 +2883,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2420,16 +2900,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>118</v>
+        <v>105</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2440,13 +2920,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>122</v>
+        <v>105</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2457,13 +2937,16 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>124</v>
+        <v>105</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2474,13 +2957,13 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>126</v>
+        <v>105</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2488,19 +2971,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>128</v>
+        <v>105</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="F61" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2511,13 +2994,13 @@
         <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>130</v>
+        <v>105</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2533,7 +3016,7 @@
       <c r="D63" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2550,7 +3033,7 @@
       <c r="D64" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2567,8 +3050,8 @@
       <c r="D65" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>82</v>
+      <c r="E65" s="13" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2579,13 +3062,13 @@
         <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>134</v>
+      <c r="E66" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2596,22 +3079,563 @@
         <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="1" customFormat="1">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="E68" s="10">
+        <v>41637</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" t="s">
+        <v>123</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="28">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>126</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" t="s">
+        <v>123</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="28.75" customHeight="1">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="28">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" t="s">
         <v>136</v>
+      </c>
+      <c r="D81" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83" t="s">
+        <v>139</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84" t="s">
+        <v>141</v>
+      </c>
+      <c r="D84" t="s">
+        <v>139</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" t="s">
+        <v>142</v>
+      </c>
+      <c r="D85" t="s">
+        <v>139</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="1" customFormat="1">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="E86" s="10">
+        <v>41638</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88" t="s">
+        <v>162</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89" t="s">
+        <v>162</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" t="s">
+        <v>162</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" t="s">
+        <v>169</v>
+      </c>
+      <c r="D91" t="s">
+        <v>162</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92" t="s">
+        <v>162</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" t="s">
+        <v>171</v>
+      </c>
+      <c r="D93" t="s">
+        <v>162</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" t="s">
+        <v>174</v>
+      </c>
+      <c r="D94" t="s">
+        <v>162</v>
+      </c>
+      <c r="E94" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" t="s">
+        <v>175</v>
+      </c>
+      <c r="D95" t="s">
+        <v>162</v>
+      </c>
+      <c r="E95" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
+        <v>177</v>
+      </c>
+      <c r="D96" t="s">
+        <v>162</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97" t="s">
+        <v>160</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" t="s">
+        <v>181</v>
+      </c>
+      <c r="D98" t="s">
+        <v>162</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" t="s">
+        <v>183</v>
+      </c>
+      <c r="D99" t="s">
+        <v>162</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"重庆时时彩, 北京赛车, 幸运农场, 江苏骰宝, 广东快乐十分, 全部"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D71 D73:D1048576">
       <formula1>"缺失, 错误"</formula1>
     </dataValidation>
   </dataValidations>

--- a/bug .xlsx
+++ b/bug .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="220" windowWidth="23260" windowHeight="13180"/>
+    <workbookView xWindow="4180" yWindow="6780" windowWidth="38400" windowHeight="19480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="217">
   <si>
     <t>重庆时时彩</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -813,6 +813,86 @@
   </si>
   <si>
     <t>下注确认的球号显示为三位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球号分配表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击会崩溃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长牌、短牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法下注，而且点击之后即使取消，依然无法下注其他的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多了一个关闭按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~10没做，正网没有在日期列显示时间，而且期数显示不完整，正网为403033，我们是033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球号分配表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期数与正网格式不一致，我们是20140101067，正网是14010167，少了个20；开奖号码的图标全都没有显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出之后页面外面的那几个页面框还在，另外有时候长时间没动会话结束，左边显示了登陆界面的一部分？应该直接回到登陆界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连码下注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注之后，如果取消注单，页面没有重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注确认框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔率为红色，号码用()括起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开奖之后（不是封盘）回显表单要清除，就是号码/赔率/金额/时间那个小表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未重现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击球号分配表之后会隐藏游戏类型下拉表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -949,7 +1029,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="114">
+  <cellStyleXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1292,8 +1372,86 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,9 +1461,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="13" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="58" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1355,7 +1510,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="114">
+  <cellStyles count="140">
     <cellStyle name="差" xfId="13" builtinId="27"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1412,6 +1567,19 @@
     <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1467,6 +1635,19 @@
     <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="58" builtinId="26"/>
     <cellStyle name="警告文本" xfId="59" builtinId="11"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -1907,17 +2088,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F102"/>
+  <dimension ref="A2:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="92.83203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1948,7 +2129,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1965,7 +2146,7 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1982,7 +2163,7 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2016,7 +2197,7 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2033,7 +2214,7 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2050,7 +2231,7 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
@@ -2070,7 +2251,7 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
@@ -2090,7 +2271,7 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F11" t="s">
@@ -2110,7 +2291,7 @@
       <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2127,7 +2308,7 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2144,7 +2325,7 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2161,7 +2342,7 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F15" t="s">
@@ -2181,7 +2362,7 @@
       <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F16" t="s">
@@ -2201,7 +2382,7 @@
       <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2218,7 +2399,7 @@
       <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2235,7 +2416,7 @@
       <c r="D19" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2252,7 +2433,7 @@
       <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2269,7 +2450,7 @@
       <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2286,7 +2467,7 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2303,7 +2484,7 @@
       <c r="D23" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2320,7 +2501,7 @@
       <c r="D24" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2328,7 +2509,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>41635</v>
       </c>
     </row>
@@ -2345,7 +2526,7 @@
       <c r="D26" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>53</v>
       </c>
       <c r="F26" t="s">
@@ -2365,7 +2546,7 @@
       <c r="D27" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F27" t="s">
@@ -2385,7 +2566,7 @@
       <c r="D28" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2402,7 +2583,7 @@
       <c r="D29" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2442,7 +2623,7 @@
       <c r="E31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2479,7 +2660,7 @@
       <c r="D33" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2556,7 +2737,7 @@
       <c r="D37" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>65</v>
       </c>
       <c r="F37" t="s">
@@ -2576,7 +2757,7 @@
       <c r="D38" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2593,7 +2774,7 @@
       <c r="D39" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2610,7 +2791,7 @@
       <c r="D40" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F40" t="s">
@@ -2650,7 +2831,7 @@
       <c r="D42" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2687,7 +2868,7 @@
       <c r="D44" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2721,10 +2902,10 @@
       <c r="D46" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2741,7 +2922,7 @@
       <c r="D47" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2775,7 +2956,7 @@
       <c r="D49" t="s">
         <v>95</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2823,7 +3004,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="9">
         <v>41636</v>
       </c>
     </row>
@@ -2840,7 +3021,7 @@
       <c r="D53" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="12" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2857,7 +3038,7 @@
       <c r="D54" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="12" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2874,7 +3055,7 @@
       <c r="D55" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="13" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2891,7 +3072,7 @@
       <c r="D56" t="s">
         <v>105</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="12" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2908,7 +3089,7 @@
       <c r="D57" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="12" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2925,7 +3106,7 @@
       <c r="D58" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="12" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2942,7 +3123,7 @@
       <c r="D59" t="s">
         <v>105</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="12" t="s">
         <v>150</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -2962,7 +3143,7 @@
       <c r="D60" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2979,7 +3160,7 @@
       <c r="D61" t="s">
         <v>105</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="13" t="s">
         <v>153</v>
       </c>
       <c r="F61" t="s">
@@ -2999,7 +3180,7 @@
       <c r="D62" t="s">
         <v>105</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="12" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3016,7 +3197,7 @@
       <c r="D63" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3033,7 +3214,7 @@
       <c r="D64" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3050,7 +3231,7 @@
       <c r="D65" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="12" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3067,7 +3248,7 @@
       <c r="D66" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="15" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3084,7 +3265,7 @@
       <c r="D67" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="15" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3092,7 +3273,7 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="9">
         <v>41637</v>
       </c>
     </row>
@@ -3109,7 +3290,7 @@
       <c r="D69" t="s">
         <v>123</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="18" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3126,7 +3307,7 @@
       <c r="D70" t="s">
         <v>123</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="18" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3143,7 +3324,7 @@
       <c r="D71" t="s">
         <v>123</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="16" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3177,7 +3358,7 @@
       <c r="D73" t="s">
         <v>123</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="16" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3194,7 +3375,7 @@
       <c r="D74" t="s">
         <v>123</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="4" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3211,7 +3392,7 @@
       <c r="D75" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="17" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3228,7 +3409,7 @@
       <c r="D76" t="s">
         <v>123</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="4" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3245,7 +3426,7 @@
       <c r="D77" t="s">
         <v>123</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="18" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3262,7 +3443,7 @@
       <c r="D78" t="s">
         <v>123</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="18" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3279,7 +3460,7 @@
       <c r="D79" t="s">
         <v>123</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3313,7 +3494,7 @@
       <c r="D81" t="s">
         <v>123</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="18" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3330,7 +3511,7 @@
       <c r="D82" t="s">
         <v>123</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="5" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3347,7 +3528,7 @@
       <c r="D83" t="s">
         <v>139</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3364,7 +3545,7 @@
       <c r="D84" t="s">
         <v>139</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="4" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3381,7 +3562,7 @@
       <c r="D85" t="s">
         <v>139</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3389,7 +3570,7 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E86" s="9">
         <v>41638</v>
       </c>
     </row>
@@ -3406,7 +3587,7 @@
       <c r="D87" t="s">
         <v>160</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="18" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3423,7 +3604,7 @@
       <c r="D88" t="s">
         <v>162</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="E88" s="18" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3440,7 +3621,7 @@
       <c r="D89" t="s">
         <v>162</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="E89" s="18" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3457,7 +3638,7 @@
       <c r="D90" t="s">
         <v>162</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="E90" s="18" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3474,7 +3655,7 @@
       <c r="D91" t="s">
         <v>162</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E91" s="18" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3491,7 +3672,7 @@
       <c r="D92" t="s">
         <v>162</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="E92" s="18" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3508,7 +3689,7 @@
       <c r="D93" t="s">
         <v>162</v>
       </c>
-      <c r="E93" s="19" t="s">
+      <c r="E93" s="18" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3559,11 +3740,11 @@
       <c r="D96" t="s">
         <v>162</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="E96" s="18" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3576,11 +3757,11 @@
       <c r="D97" t="s">
         <v>160</v>
       </c>
-      <c r="E97" s="19" t="s">
+      <c r="E97" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3593,11 +3774,11 @@
       <c r="D98" t="s">
         <v>162</v>
       </c>
-      <c r="E98" s="19" t="s">
+      <c r="E98" s="18" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3610,23 +3791,206 @@
       <c r="D99" t="s">
         <v>162</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:6" s="1" customFormat="1">
       <c r="A100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="E100" s="9">
+        <v>41639</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="B101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" t="s">
+        <v>197</v>
+      </c>
+      <c r="D101" t="s">
+        <v>198</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>97</v>
+      </c>
+      <c r="C102" t="s">
+        <v>200</v>
+      </c>
+      <c r="D102" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>197</v>
+      </c>
+      <c r="D103" t="s">
+        <v>198</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>197</v>
+      </c>
+      <c r="D104" t="s">
+        <v>198</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>197</v>
+      </c>
+      <c r="D105" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" t="s">
+        <v>204</v>
+      </c>
+      <c r="D106" t="s">
+        <v>198</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>97</v>
+      </c>
+      <c r="C107" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="28">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>207</v>
+      </c>
+      <c r="D108" t="s">
+        <v>198</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>209</v>
+      </c>
+      <c r="D109" t="s">
+        <v>198</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>97</v>
+      </c>
+      <c r="C110" t="s">
+        <v>211</v>
+      </c>
+      <c r="D110" t="s">
+        <v>198</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111" t="s">
+        <v>213</v>
+      </c>
+      <c r="D111" t="s">
+        <v>198</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/bug .xlsx
+++ b/bug .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="6780" windowWidth="38400" windowHeight="19480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="223">
   <si>
     <t>重庆时时彩</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -876,23 +876,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>开奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开奖之后（不是封盘）回显表单要清除，就是号码/赔率/金额/时间那个小表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未重现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击球号分配表之后会隐藏游戏类型下拉表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投注框没有清掉金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>赔率为红色，号码用()括起来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开奖之后（不是封盘）回显表单要清除，就是号码/赔率/金额/时间那个小表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未重现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击球号分配表之后会隐藏游戏类型下拉表</t>
+    <t>是投注号码用()括起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认框中应该是
+长牌（24） 6.7 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测，我这里没有开奖，出不来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘后是否清除需要测试。因为我是获取的未结算注单，理论上来说，开奖之后jieshui。Php对所有注单进行了计算，刷新后应该不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同bug81</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -900,7 +925,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -980,6 +1005,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1029,7 +1061,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="140">
+  <cellStyleXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1450,8 +1482,80 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1509,8 +1613,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="59" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="13" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="59">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="140">
+  <cellStyles count="164">
     <cellStyle name="差" xfId="13" builtinId="27"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1580,6 +1693,18 @@
     <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1648,6 +1773,18 @@
     <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="58" builtinId="26"/>
     <cellStyle name="警告文本" xfId="59" builtinId="11"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -1667,8 +1804,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3048</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1106424</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
@@ -1761,8 +1898,8 @@
       <xdr:rowOff>48768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>25908</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>178308</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>109728</xdr:rowOff>
     </xdr:to>
@@ -2090,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2099,7 +2236,7 @@
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="92.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -3055,8 +3192,11 @@
       <c r="D55" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="12" t="s">
         <v>146</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3481,7 +3621,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="28">
+    <row r="81" spans="1:6" ht="28">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3498,7 +3638,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3511,11 +3651,14 @@
       <c r="D82" t="s">
         <v>123</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="16" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3528,11 +3671,11 @@
       <c r="D83" t="s">
         <v>139</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="18" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3549,7 +3692,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3566,7 +3709,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="1" customFormat="1">
+    <row r="86" spans="1:6" s="1" customFormat="1">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3574,7 +3717,7 @@
         <v>41638</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3591,7 +3734,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3608,7 +3751,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3625,7 +3768,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3642,7 +3785,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3659,7 +3802,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3676,7 +3819,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3693,7 +3836,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3710,7 +3853,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3727,7 +3870,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3820,10 +3963,10 @@
         <v>199</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="28">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3836,8 +3979,11 @@
       <c r="D102" t="s">
         <v>198</v>
       </c>
-      <c r="E102" s="18" t="s">
+      <c r="E102" s="20" t="s">
         <v>201</v>
+      </c>
+      <c r="F102" s="20" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3888,7 +4034,7 @@
         <v>198</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3955,8 +4101,11 @@
       <c r="D109" t="s">
         <v>198</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="E109" s="20" t="s">
         <v>210</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3972,8 +4121,11 @@
       <c r="D110" t="s">
         <v>198</v>
       </c>
-      <c r="E110" s="18" t="s">
-        <v>212</v>
+      <c r="E110" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="F110" s="19" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3984,13 +4136,16 @@
         <v>37</v>
       </c>
       <c r="C111" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D111" t="s">
         <v>198</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>214</v>
+      <c r="E111" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F111" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/bug .xlsx
+++ b/bug .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -288,10 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更换皮肤之后的确定和重置按钮颜色不对，还是棕色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更换皮肤之后两面长龙列表填充颜色不对，仍为棕色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -918,6 +914,10 @@
   </si>
   <si>
     <t>同bug81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换皮肤之后的确定和重置按钮颜色不对，还是棕色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1061,7 +1061,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="164">
+  <cellStyleXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1554,8 +1554,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1622,8 +1646,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="59">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="164">
+  <cellStyles count="172">
     <cellStyle name="差" xfId="13" builtinId="27"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1705,6 +1732,10 @@
     <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1785,6 +1816,10 @@
     <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="58" builtinId="26"/>
     <cellStyle name="警告文本" xfId="59" builtinId="11"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -2227,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2300,7 +2335,7 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2463,7 +2498,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2479,7 +2514,7 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F15" t="s">
@@ -2604,7 +2639,7 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="22" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2621,7 +2656,7 @@
       <c r="D23" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2667,7 +2702,7 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2678,16 +2713,16 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2703,8 +2738,8 @@
       <c r="D28" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>72</v>
+      <c r="E28" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2720,8 +2755,8 @@
       <c r="D29" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>121</v>
+      <c r="E29" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1">
@@ -2738,10 +2773,10 @@
         <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16" thickTop="1" thickBot="1">
@@ -2758,10 +2793,10 @@
         <v>23</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickTop="1">
@@ -2778,10 +2813,10 @@
         <v>52</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2818,7 +2853,7 @@
         <v>60</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2835,10 +2870,10 @@
         <v>52</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2858,7 +2893,7 @@
         <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2878,7 +2913,7 @@
         <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2895,7 +2930,7 @@
         <v>52</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2912,7 +2947,7 @@
         <v>52</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2923,16 +2958,16 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="F40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2943,16 +2978,16 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
         <v>77</v>
       </c>
-      <c r="D41" t="s">
-        <v>78</v>
-      </c>
       <c r="E41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" t="s">
         <v>102</v>
-      </c>
-      <c r="F41" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1">
@@ -2963,13 +2998,13 @@
         <v>33</v>
       </c>
       <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" thickTop="1" thickBot="1">
@@ -2980,16 +3015,16 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
         <v>84</v>
       </c>
-      <c r="D43" t="s">
-        <v>85</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" thickTop="1">
@@ -3000,13 +3035,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="D44" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1">
@@ -3017,13 +3052,13 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D45" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16" thickTop="1" thickBot="1">
@@ -3034,16 +3069,16 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D46" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="F46" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" thickTop="1">
@@ -3054,13 +3089,13 @@
         <v>33</v>
       </c>
       <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="D47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3071,13 +3106,13 @@
         <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3088,13 +3123,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
         <v>94</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3102,19 +3137,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3125,16 +3160,16 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D51" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="1" customFormat="1">
@@ -3153,13 +3188,13 @@
         <v>37</v>
       </c>
       <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
         <v>104</v>
       </c>
-      <c r="D53" t="s">
-        <v>105</v>
-      </c>
       <c r="E53" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3170,13 +3205,13 @@
         <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3187,16 +3222,16 @@
         <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3204,16 +3239,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3221,16 +3256,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" t="s">
         <v>112</v>
       </c>
-      <c r="C57" t="s">
-        <v>113</v>
-      </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3241,13 +3276,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3258,16 +3293,16 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E59" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3278,13 +3313,13 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3292,19 +3327,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E61" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" t="s">
         <v>153</v>
-      </c>
-      <c r="F61" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3315,13 +3350,13 @@
         <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3355,7 +3390,7 @@
         <v>9</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3372,7 +3407,7 @@
         <v>9</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3389,7 +3424,7 @@
         <v>5</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3400,13 +3435,13 @@
         <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="1" customFormat="1">
@@ -3425,13 +3460,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" t="s">
         <v>122</v>
       </c>
-      <c r="D69" t="s">
-        <v>123</v>
-      </c>
       <c r="E69" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3442,13 +3477,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" t="s">
         <v>122</v>
       </c>
-      <c r="D70" t="s">
-        <v>123</v>
-      </c>
       <c r="E70" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3459,13 +3494,13 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" t="s">
         <v>122</v>
       </c>
-      <c r="D71" t="s">
-        <v>123</v>
-      </c>
       <c r="E71" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3476,13 +3511,13 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3493,13 +3528,13 @@
         <v>33</v>
       </c>
       <c r="C73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="28">
@@ -3510,13 +3545,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3527,13 +3562,13 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3544,13 +3579,13 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" t="s">
+        <v>122</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="D76" t="s">
-        <v>123</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3561,13 +3596,13 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" s="18" t="s">
         <v>130</v>
-      </c>
-      <c r="D77" t="s">
-        <v>123</v>
-      </c>
-      <c r="E77" s="18" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3578,13 +3613,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" t="s">
         <v>122</v>
       </c>
-      <c r="D78" t="s">
-        <v>123</v>
-      </c>
       <c r="E78" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3595,13 +3630,13 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" t="s">
         <v>122</v>
       </c>
-      <c r="D79" t="s">
-        <v>123</v>
-      </c>
       <c r="E79" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="28.75" customHeight="1">
@@ -3609,16 +3644,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" t="s">
         <v>134</v>
       </c>
-      <c r="C80" t="s">
-        <v>135</v>
-      </c>
       <c r="D80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E80" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="28">
@@ -3626,16 +3661,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3646,16 +3681,16 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3666,13 +3701,13 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" t="s">
         <v>138</v>
       </c>
-      <c r="D83" t="s">
-        <v>139</v>
-      </c>
       <c r="E83" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3680,16 +3715,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D84" t="s">
+        <v>138</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3697,16 +3732,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C85" t="s">
+        <v>141</v>
+      </c>
+      <c r="D85" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="D85" t="s">
-        <v>139</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="1" customFormat="1">
@@ -3725,13 +3760,13 @@
         <v>37</v>
       </c>
       <c r="C87" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" t="s">
         <v>159</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3742,13 +3777,13 @@
         <v>33</v>
       </c>
       <c r="C88" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" t="s">
+        <v>161</v>
+      </c>
+      <c r="E88" s="18" t="s">
         <v>163</v>
-      </c>
-      <c r="D88" t="s">
-        <v>162</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3756,16 +3791,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89" t="s">
+        <v>161</v>
+      </c>
+      <c r="E89" s="18" t="s">
         <v>165</v>
-      </c>
-      <c r="D89" t="s">
-        <v>162</v>
-      </c>
-      <c r="E89" s="18" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3773,16 +3808,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C90" t="s">
+        <v>166</v>
+      </c>
+      <c r="D90" t="s">
+        <v>161</v>
+      </c>
+      <c r="E90" s="18" t="s">
         <v>167</v>
-      </c>
-      <c r="D90" t="s">
-        <v>162</v>
-      </c>
-      <c r="E90" s="18" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3790,16 +3825,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" t="s">
+        <v>161</v>
+      </c>
+      <c r="E91" s="18" t="s">
         <v>169</v>
-      </c>
-      <c r="D91" t="s">
-        <v>162</v>
-      </c>
-      <c r="E91" s="18" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3807,16 +3842,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3827,13 +3862,13 @@
         <v>33</v>
       </c>
       <c r="C93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3844,13 +3879,13 @@
         <v>33</v>
       </c>
       <c r="C94" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3861,13 +3896,13 @@
         <v>33</v>
       </c>
       <c r="C95" t="s">
+        <v>174</v>
+      </c>
+      <c r="D95" t="s">
+        <v>161</v>
+      </c>
+      <c r="E95" t="s">
         <v>175</v>
-      </c>
-      <c r="D95" t="s">
-        <v>162</v>
-      </c>
-      <c r="E95" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3875,16 +3910,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
+        <v>176</v>
+      </c>
+      <c r="D96" t="s">
+        <v>161</v>
+      </c>
+      <c r="E96" s="18" t="s">
         <v>177</v>
-      </c>
-      <c r="D96" t="s">
-        <v>162</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3892,16 +3927,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
+        <v>178</v>
+      </c>
+      <c r="D97" t="s">
+        <v>159</v>
+      </c>
+      <c r="E97" s="18" t="s">
         <v>179</v>
-      </c>
-      <c r="D97" t="s">
-        <v>160</v>
-      </c>
-      <c r="E97" s="18" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3912,13 +3947,13 @@
         <v>37</v>
       </c>
       <c r="C98" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98" t="s">
+        <v>161</v>
+      </c>
+      <c r="E98" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="D98" t="s">
-        <v>162</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3929,13 +3964,13 @@
         <v>37</v>
       </c>
       <c r="C99" t="s">
+        <v>182</v>
+      </c>
+      <c r="D99" t="s">
+        <v>161</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="D99" t="s">
-        <v>162</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="1" customFormat="1">
@@ -3954,16 +3989,16 @@
         <v>37</v>
       </c>
       <c r="C101" t="s">
+        <v>196</v>
+      </c>
+      <c r="D101" t="s">
         <v>197</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E101" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="F101" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="28">
@@ -3971,19 +4006,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C102" t="s">
+        <v>199</v>
+      </c>
+      <c r="D102" t="s">
+        <v>197</v>
+      </c>
+      <c r="E102" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D102" t="s">
-        <v>198</v>
-      </c>
-      <c r="E102" s="20" t="s">
-        <v>201</v>
-      </c>
       <c r="F102" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3994,13 +4029,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
+        <v>196</v>
+      </c>
+      <c r="D103" t="s">
         <v>197</v>
       </c>
-      <c r="D103" t="s">
-        <v>198</v>
-      </c>
       <c r="E103" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4011,13 +4046,13 @@
         <v>3</v>
       </c>
       <c r="C104" t="s">
+        <v>196</v>
+      </c>
+      <c r="D104" t="s">
         <v>197</v>
       </c>
-      <c r="D104" t="s">
-        <v>198</v>
-      </c>
       <c r="E104" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4028,13 +4063,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
+        <v>196</v>
+      </c>
+      <c r="D105" t="s">
         <v>197</v>
       </c>
-      <c r="D105" t="s">
-        <v>198</v>
-      </c>
       <c r="E105" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4045,13 +4080,13 @@
         <v>33</v>
       </c>
       <c r="C106" t="s">
+        <v>203</v>
+      </c>
+      <c r="D106" t="s">
+        <v>197</v>
+      </c>
+      <c r="E106" s="18" t="s">
         <v>204</v>
-      </c>
-      <c r="D106" t="s">
-        <v>198</v>
-      </c>
-      <c r="E106" s="18" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4059,16 +4094,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C107" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D107" t="s">
         <v>23</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="28">
@@ -4079,13 +4114,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
+        <v>206</v>
+      </c>
+      <c r="D108" t="s">
+        <v>197</v>
+      </c>
+      <c r="E108" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="D108" t="s">
-        <v>198</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4096,16 +4131,16 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
+        <v>208</v>
+      </c>
+      <c r="D109" t="s">
+        <v>197</v>
+      </c>
+      <c r="E109" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D109" t="s">
-        <v>198</v>
-      </c>
-      <c r="E109" s="20" t="s">
-        <v>210</v>
-      </c>
       <c r="F109" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4113,19 +4148,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C110" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D110" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E110" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" s="19" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4136,16 +4171,16 @@
         <v>37</v>
       </c>
       <c r="C111" t="s">
+        <v>211</v>
+      </c>
+      <c r="D111" t="s">
+        <v>197</v>
+      </c>
+      <c r="E111" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="D111" t="s">
-        <v>198</v>
-      </c>
-      <c r="E111" s="18" t="s">
-        <v>213</v>
-      </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/bug .xlsx
+++ b/bug .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1061,7 +1061,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="172">
+  <cellStyleXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1240,6 +1240,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1650,7 +1662,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="172">
+  <cellStyles count="176">
     <cellStyle name="差" xfId="13" builtinId="27"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1736,6 +1748,8 @@
     <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1820,6 +1834,8 @@
     <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="58" builtinId="26"/>
     <cellStyle name="警告文本" xfId="59" builtinId="11"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -2262,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2554,7 +2570,7 @@
       <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
         <v>31</v>
       </c>
     </row>
